--- a/data/October datasets/Peru-potato - Test.xlsx
+++ b/data/October datasets/Peru-potato - Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\FINAL VERSION\data\October datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Final version v1 - 16 Jan\CarbonEmissionPrediction\data - changed features name\October datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D8CAC-B4C8-47AB-AC0C-B0356C852C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03FAD8-27FD-4170-BBFE-BE68957FFC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{437FE8BD-D42E-4D5B-83F4-F5ABB2951F4F}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{437FE8BD-D42E-4D5B-83F4-F5ABB2951F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,64 +30,64 @@
     <t>Irrigation frequency</t>
   </si>
   <si>
-    <t>Cultivated area (hectares)</t>
-  </si>
-  <si>
-    <t>Amount of seed required for the above level (kg)</t>
-  </si>
-  <si>
-    <t>The amount of animal manure for the above amount of cultivation (tons)</t>
-  </si>
-  <si>
-    <t>The amount of phosphate fertilizer for the amount of the above surface (kg)</t>
-  </si>
-  <si>
-    <t>The amount of potassium fertilizer for the above level (kg)</t>
-  </si>
-  <si>
-    <t>Amount of nitrogen fertilizer for the above level (kg)</t>
-  </si>
-  <si>
     <t>Irrigation type</t>
   </si>
   <si>
-    <t>Amount of time spent for each irrigation (hours)</t>
+    <t>Cultivated area (hec)</t>
   </si>
   <si>
-    <t>The quantity of vinegar for the above level (kg)</t>
+    <t>Animal manure (tons)</t>
   </si>
   <si>
-    <t>Amount of toxins needed for the above level (kg)</t>
+    <t>Phosphate (kg)</t>
   </si>
   <si>
-    <t>The amount of product harvested from the above level (kilograms)</t>
+    <t>Potassium (kg)</t>
   </si>
   <si>
-    <t>The amount of fuel for the plow</t>
+    <t>Nitrogen (kg)</t>
   </si>
   <si>
-    <t>Amount of fuel for the chisel</t>
+    <t>Seed (kg)</t>
   </si>
   <si>
-    <t>Total Amount of water consumed</t>
+    <t xml:space="preserve"> Irrigation time (hrs)</t>
   </si>
   <si>
-    <t>Total Amount of fuel consumed</t>
+    <t>Vinegar (kg)</t>
   </si>
   <si>
-    <t>Total Amount of Gasoil consumed</t>
+    <t>Toxin (kg)</t>
   </si>
   <si>
-    <t>Total Amount of Butan consumed(kg)</t>
+    <t>Yield (kg)</t>
   </si>
   <si>
-    <t>Total Amount of electricity</t>
+    <t>Plughing diesel (lit)</t>
   </si>
   <si>
-    <t>Carbon emission_Cool Farm Tool</t>
+    <t xml:space="preserve"> Chisel diesel (lit)</t>
   </si>
   <si>
-    <t>Total of Carbon emission(calculated manually)</t>
+    <t>Water (m3)</t>
+  </si>
+  <si>
+    <t>Diesel (lit)</t>
+  </si>
+  <si>
+    <t>Petrol (lit)</t>
+  </si>
+  <si>
+    <t>Butane (lit)</t>
+  </si>
+  <si>
+    <t>Electricity (kwh)</t>
+  </si>
+  <si>
+    <t>Calculated carbon emission (kg co2-eq)</t>
+  </si>
+  <si>
+    <t>Carbon emission-CFT (kg co2-eq)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +122,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Inherit"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,35 +132,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -188,20 +164,22 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -214,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,36 +209,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A29E5D5-070B-4EEA-A27B-7F7FB0BD7AA0}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -590,1073 +565,1073 @@
     <col min="12" max="12" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="115.5" thickTop="1" thickBot="1">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:21" ht="44" customHeight="1" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.65" thickBot="1">
+      <c r="A2" s="6">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6">
+        <v>180</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100</v>
+      </c>
+      <c r="D2" s="6">
+        <v>160</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2109.7046413502112</v>
+      </c>
+      <c r="F2" s="6">
+        <v>57600</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>10440</v>
+      </c>
+      <c r="P2" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A2" s="9">
-        <v>45</v>
-      </c>
-      <c r="B2" s="9">
-        <v>180</v>
-      </c>
-      <c r="C2" s="9">
-        <v>100</v>
-      </c>
-      <c r="D2" s="9">
-        <v>160</v>
-      </c>
-      <c r="E2" s="10">
-        <v>2109.7046413502112</v>
-      </c>
-      <c r="F2" s="9">
-        <v>57600</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9">
-        <v>7</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0</v>
-      </c>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <v>0</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9">
-        <v>10440</v>
-      </c>
-      <c r="P2" s="14">
-        <v>1.89</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>0</v>
-      </c>
-      <c r="R2" s="13">
-        <v>0</v>
-      </c>
-      <c r="S2" s="14">
-        <v>2</v>
-      </c>
-      <c r="T2" s="12">
+      <c r="T2" s="9">
         <f xml:space="preserve"> P2*2.23+O2*0.168+S2*0.193+B2*18.2+J2*2.2+R2*1.25+C2*1.8+D2*0.161+E2*5.1+A2*229+Q2*2.24</f>
         <v>26304.774370886076</v>
       </c>
-      <c r="U2" s="16">
-        <f xml:space="preserve"> A2*229+B2*17.09+C2*0.08+D2*0.2+K2*8.6+O2*0.01+P2*2.5+Q2*2.9+R2*3.24+S2*0.68</f>
+      <c r="U2" s="13">
+        <f t="shared" ref="U2:U16" si="0" xml:space="preserve"> A2*229+B2*17.09+C2*0.08+D2*0.2+K2*8.6+O2*0.01+P2*2.5+Q2*2.9+R2*3.24+S2*0.68</f>
         <v>13531.685000000001</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>45</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>180</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>100</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>160</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>57600</v>
       </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
         <v>4</v>
       </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>9580</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q3" s="13">
-        <v>0</v>
-      </c>
-      <c r="R3" s="13">
-        <v>0</v>
-      </c>
-      <c r="S3" s="14">
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
         <v>1.5</v>
       </c>
-      <c r="T3" s="12">
-        <f t="shared" ref="T3:T16" si="0" xml:space="preserve"> P3*2.23+O3*0.168+S3*0.193+B3*18.2+J3*2.2+R3*1.25+C3*1.8+D3*0.161+E3*5.1+A3*229+Q3*2.24</f>
+      <c r="T3" s="9">
+        <f t="shared" ref="T3:T16" si="1" xml:space="preserve"> P3*2.23+O3*0.168+S3*0.193+B3*18.2+J3*2.2+R3*1.25+C3*1.8+D3*0.161+E3*5.1+A3*229+Q3*2.24</f>
         <v>26160.197870886077</v>
       </c>
-      <c r="U3" s="16">
-        <f xml:space="preserve"> A3*229+B3*17.09+C3*0.08+D3*0.2+K3*8.6+O3*0.01+P3*2.5+Q3*2.9+R3*3.24+S3*0.68</f>
+      <c r="U3" s="13">
+        <f t="shared" si="0"/>
         <v>13522.745000000001</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>45</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>180</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>100</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>160</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>57600</v>
       </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
         <v>9050</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="14">
-        <v>1</v>
-      </c>
-      <c r="T4" s="12">
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <f t="shared" si="1"/>
+        <v>26071.061370886076</v>
+      </c>
+      <c r="U4" s="13">
         <f t="shared" si="0"/>
-        <v>26071.061370886076</v>
-      </c>
-      <c r="U4" s="16">
-        <f xml:space="preserve"> A4*229+B4*17.09+C4*0.08+D4*0.2+K4*8.6+O4*0.01+P4*2.5+Q4*2.9+R4*3.24+S4*0.68</f>
         <v>13517.105000000001</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>45</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>180</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>100</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>160</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>57600</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>6</v>
       </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
         <v>15690</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q5" s="13">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="14">
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
         <v>3.6</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="9">
+        <f t="shared" si="1"/>
+        <v>27187.083170886079</v>
+      </c>
+      <c r="U5" s="13">
         <f t="shared" si="0"/>
-        <v>27187.083170886079</v>
-      </c>
-      <c r="U5" s="16">
-        <f xml:space="preserve"> A5*229+B5*17.09+C5*0.08+D5*0.2+K5*8.6+O5*0.01+P5*2.5+Q5*2.9+R5*3.24+S5*0.68</f>
         <v>13585.273000000001</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>45</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>180</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>100</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>160</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>57600</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>5</v>
       </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
         <v>13320</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
         <v>2.5</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="9">
+        <f t="shared" si="1"/>
+        <v>26788.710870886076</v>
+      </c>
+      <c r="U6" s="13">
         <f t="shared" si="0"/>
-        <v>26788.710870886076</v>
-      </c>
-      <c r="U6" s="16">
-        <f xml:space="preserve"> A6*229+B6*17.09+C6*0.08+D6*0.2+K6*8.6+O6*0.01+P6*2.5+Q6*2.9+R6*3.24+S6*0.68</f>
         <v>13560.825000000003</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>45</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>180</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>100</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>160</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>57600</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>5</v>
       </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
         <v>13820</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q7" s="13">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="15">
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
         <v>2</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="9">
+        <f t="shared" si="1"/>
+        <v>26872.614370886076</v>
+      </c>
+      <c r="U7" s="13">
         <f t="shared" si="0"/>
-        <v>26872.614370886076</v>
-      </c>
-      <c r="U7" s="16">
-        <f xml:space="preserve"> A7*229+B7*17.09+C7*0.08+D7*0.2+K7*8.6+O7*0.01+P7*2.5+Q7*2.9+R7*3.24+S7*0.68</f>
         <v>13565.485000000002</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>45</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>180</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>100</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>160</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>57600</v>
       </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>12</v>
       </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
         <v>14500</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="S8" s="14">
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
         <v>2</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="9">
+        <f t="shared" si="1"/>
+        <v>26986.854370886078</v>
+      </c>
+      <c r="U8" s="13">
         <f t="shared" si="0"/>
-        <v>26986.854370886078</v>
-      </c>
-      <c r="U8" s="16">
-        <f xml:space="preserve"> A8*229+B8*17.09+C8*0.08+D8*0.2+K8*8.6+O8*0.01+P8*2.5+Q8*2.9+R8*3.24+S8*0.68</f>
         <v>13572.285000000002</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>45</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>180</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>100</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>160</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>57600</v>
       </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
         <v>13040</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
-        <v>0</v>
-      </c>
-      <c r="S9" s="14">
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
         <v>1.5</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="9">
+        <f t="shared" si="1"/>
+        <v>26741.477870886076</v>
+      </c>
+      <c r="U9" s="13">
         <f t="shared" si="0"/>
-        <v>26741.477870886076</v>
-      </c>
-      <c r="U9" s="16">
-        <f xml:space="preserve"> A9*229+B9*17.09+C9*0.08+D9*0.2+K9*8.6+O9*0.01+P9*2.5+Q9*2.9+R9*3.24+S9*0.68</f>
         <v>13557.345000000001</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>45</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>180</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>100</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>160</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>57600</v>
       </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
         <v>6</v>
       </c>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
         <v>9820</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0</v>
-      </c>
-      <c r="S10" s="14">
-        <v>1</v>
-      </c>
-      <c r="T10" s="12">
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="1"/>
+        <v>26200.421370886077</v>
+      </c>
+      <c r="U10" s="13">
         <f t="shared" si="0"/>
-        <v>26200.421370886077</v>
-      </c>
-      <c r="U10" s="16">
-        <f xml:space="preserve"> A10*229+B10*17.09+C10*0.08+D10*0.2+K10*8.6+O10*0.01+P10*2.5+Q10*2.9+R10*3.24+S10*0.68</f>
         <v>13524.805000000002</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>45</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>180</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>100</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>160</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>57600</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>11</v>
       </c>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
         <v>21430</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
-      <c r="S11" s="14">
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
         <v>3.6</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="9">
+        <f t="shared" si="1"/>
+        <v>28151.403170886078</v>
+      </c>
+      <c r="U11" s="13">
         <f t="shared" si="0"/>
-        <v>28151.403170886078</v>
-      </c>
-      <c r="U11" s="16">
-        <f xml:space="preserve"> A11*229+B11*17.09+C11*0.08+D11*0.2+K11*8.6+O11*0.01+P11*2.5+Q11*2.9+R11*3.24+S11*0.68</f>
         <v>13642.673000000001</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>45</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>180</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>100</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>160</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>57600</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>9</v>
       </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
         <v>18498</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q12" s="13">
-        <v>0</v>
-      </c>
-      <c r="R12" s="13">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9">
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
         <v>2.5</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="9">
+        <f t="shared" si="1"/>
+        <v>27658.614870886078</v>
+      </c>
+      <c r="U12" s="13">
         <f t="shared" si="0"/>
-        <v>27658.614870886078</v>
-      </c>
-      <c r="U12" s="16">
-        <f xml:space="preserve"> A12*229+B12*17.09+C12*0.08+D12*0.2+K12*8.6+O12*0.01+P12*2.5+Q12*2.9+R12*3.24+S12*0.68</f>
         <v>13612.605000000001</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>45</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>180</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>100</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>160</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>57600</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>6</v>
       </c>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
         <v>12180</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="11">
         <v>1.89</v>
       </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="15">
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
         <v>2</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="9">
+        <f t="shared" si="1"/>
+        <v>26597.09437088608</v>
+      </c>
+      <c r="U13" s="13">
         <f t="shared" si="0"/>
-        <v>26597.09437088608</v>
-      </c>
-      <c r="U13" s="16">
-        <f xml:space="preserve"> A13*229+B13*17.09+C13*0.08+D13*0.2+K13*8.6+O13*0.01+P13*2.5+Q13*2.9+R13*3.24+S13*0.68</f>
         <v>13549.085000000001</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>71.100000000000009</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>160</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>180</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>80</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>108000</v>
       </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
         <v>14</v>
       </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
         <v>12190</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="6">
         <v>4.72</v>
       </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="9">
+        <f t="shared" si="1"/>
+        <v>32348.939290886079</v>
+      </c>
+      <c r="U14" s="13">
         <f t="shared" si="0"/>
-        <v>32348.939290886079</v>
-      </c>
-      <c r="U14" s="16">
-        <f xml:space="preserve"> A14*229+B14*17.09+C14*0.08+D14*0.2+K14*8.6+O14*0.01+P14*2.5+Q14*2.9+R14*3.24+S14*0.68</f>
         <v>19181.175200000005</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>71.099999999999994</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>160</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>180</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>80</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>108000</v>
       </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
         <v>10</v>
       </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
         <v>8380</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="6">
         <v>4.3099999999999996</v>
       </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13">
-        <v>0</v>
-      </c>
-      <c r="S15" s="15">
-        <v>1</v>
-      </c>
-      <c r="T15" s="12">
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="1"/>
+        <v>31707.917970886076</v>
+      </c>
+      <c r="U15" s="13">
         <f t="shared" si="0"/>
-        <v>31707.917970886076</v>
-      </c>
-      <c r="U15" s="16">
-        <f xml:space="preserve"> A15*229+B15*17.09+C15*0.08+D15*0.2+K15*8.6+O15*0.01+P15*2.5+Q15*2.9+R15*3.24+S15*0.68</f>
         <v>19141.955000000002</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14.65" thickBot="1">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>71.099999999999994</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>160</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>180</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>80</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>2109.7046413502112</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>108000</v>
       </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
         <v>7</v>
       </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
         <v>5380</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="6">
         <v>4.3099999999999996</v>
       </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
+      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="9">
+        <f t="shared" si="1"/>
+        <v>31203.834980886073</v>
+      </c>
+      <c r="U16" s="13">
         <f t="shared" si="0"/>
-        <v>31203.834980886073</v>
-      </c>
-      <c r="U16" s="16">
-        <f xml:space="preserve"> A16*229+B16*17.09+C16*0.08+D16*0.2+K16*8.6+O16*0.01+P16*2.5+Q16*2.9+R16*3.24+S16*0.68</f>
         <v>19111.6626</v>
       </c>
     </row>
